--- a/Document/Testcase_Plant.xlsx
+++ b/Document/Testcase_Plant.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCGP_Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="4920"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14535" windowHeight="4860"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration_Plant" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t xml:space="preserve">Expected Result </t>
   </si>
@@ -56,9 +51,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Business Group Name is required</t>
-  </si>
-  <si>
     <t>Edit success</t>
   </si>
   <si>
@@ -74,12 +66,6 @@
     <t>Create a company which it can contain multiple plants</t>
   </si>
   <si>
-    <t>Create a company which it can contain multiple plants (Empty name)</t>
-  </si>
-  <si>
-    <t>Create a company which it can contain multiple plants (Duplicate name)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create a business group which it can contain multiple companies </t>
   </si>
   <si>
@@ -131,13 +117,7 @@
     <t>Plant Code is required</t>
   </si>
   <si>
-    <t>Create a company which it can contain multiple plants (Empty code)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company Code is required  </t>
-  </si>
-  <si>
-    <t>Company Name is required</t>
+    <t>1. Click delete                                                   2.Show alert "Are you sure you want to delete record?" 3.OK</t>
   </si>
   <si>
     <t>Create a plant (Empty code)</t>
@@ -197,19 +177,31 @@
     <t>Delete a location</t>
   </si>
   <si>
-    <t>Summary:</t>
-  </si>
-  <si>
-    <t>Total test case :</t>
-  </si>
-  <si>
-    <t>Pass:</t>
-  </si>
-  <si>
-    <t>Fail:</t>
-  </si>
-  <si>
-    <t>1. Click delete                                                   2.Show alert "Are you sure you want to delete record?"                                                        3.OK</t>
+    <t xml:space="preserve">Alert Text : Company Code is required  </t>
+  </si>
+  <si>
+    <t>Alert Text : Company Name is required</t>
+  </si>
+  <si>
+    <t>Alert Text : Duplicate record</t>
+  </si>
+  <si>
+    <t>Alert Text : Business Group Name is required</t>
+  </si>
+  <si>
+    <t>Error : Create a company which it can contain multiple plants (Empty code)</t>
+  </si>
+  <si>
+    <t>Error : Create a company which it can contain multiple plants (Empty name)</t>
+  </si>
+  <si>
+    <t>Error : Create a company which it can contain multiple plants (Duplicate name)</t>
+  </si>
+  <si>
+    <t>Name textbox must be empty</t>
+  </si>
+  <si>
+    <t>Code textbox must be empty</t>
   </si>
 </sst>
 </file>
@@ -217,9 +209,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,12 +537,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -873,10 +859,10 @@
     <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -930,7 +916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -958,9 +944,6 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="24" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="112">
@@ -1133,7 +1116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1168,7 +1151,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1345,7 +1328,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1353,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I38"/>
+  <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1365,244 +1348,296 @@
     <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15">
-      <c r="B3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B4" s="2" t="s">
+    <row r="2" spans="2:9" ht="35.25" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="4" spans="2:9" ht="31.5" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="36.75" customHeight="1">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" ht="57">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" ht="57">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" ht="57">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" ht="42.75">
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="36.75" customHeight="1">
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:9" ht="42.75">
+    <row r="10" spans="2:9" ht="28.5">
       <c r="B10" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" ht="42.75">
       <c r="B11" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:9" ht="42.75">
+    <row r="12" spans="2:9" ht="57">
       <c r="B12" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
+      <c r="G12" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:9" ht="42.75">
+    <row r="13" spans="2:9" ht="57">
       <c r="B13" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:9" ht="28.5">
+    <row r="14" spans="2:9" ht="42.75">
       <c r="B14" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:9" ht="42.75">
       <c r="B15" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
-        <v>33</v>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="2:9" ht="57">
+    <row r="16" spans="2:9" ht="28.5">
       <c r="B16" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
-        <v>10</v>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:9" ht="57">
+    <row r="17" spans="2:9" ht="28.5">
       <c r="B17" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="42.75">
       <c r="B18" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>6</v>
@@ -1610,75 +1645,71 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9" ht="57">
+    <row r="19" spans="2:9" ht="28.5">
       <c r="B19" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9" ht="28.5">
       <c r="B20" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="28.5">
       <c r="B21" s="6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9" ht="42.75">
+    <row r="22" spans="2:9" ht="57">
       <c r="B22" s="6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>
@@ -1686,53 +1717,55 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9" ht="28.5">
+    <row r="23" spans="2:9" ht="42.75">
       <c r="B23" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:9" ht="28.5">
+    <row r="24" spans="2:9">
       <c r="B24" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:9" ht="28.5">
       <c r="B25" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
@@ -1740,55 +1773,53 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:9" ht="57">
+    <row r="26" spans="2:9" ht="28.5">
       <c r="B26" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:9" ht="42.75">
+    <row r="27" spans="2:9" ht="28.5">
       <c r="B27" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="6">
-        <v>20</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>6</v>
@@ -1796,53 +1827,53 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="2:9" ht="28.5">
+    <row r="29" spans="2:9">
       <c r="B29" s="6">
-        <v>21</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="2:9" ht="28.5">
+    <row r="30" spans="2:9">
       <c r="B30" s="6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="2:9" ht="28.5">
       <c r="B31" s="6">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>9</v>
@@ -1850,35 +1881,35 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" ht="28.5">
       <c r="B32" s="6">
-        <v>24</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>6</v>
@@ -1886,17 +1917,17 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="6">
-        <v>26</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>6</v>
@@ -1904,82 +1935,10 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" ht="28.5">
-      <c r="B35" s="6">
-        <v>27</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="2:9" ht="28.5">
-      <c r="B36" s="6">
-        <v>28</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="6">
-        <v>29</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="6">
-        <v>30</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Testcase_Plant.xlsx
+++ b/Document/Testcase_Plant.xlsx
@@ -126,9 +126,6 @@
     <t>Plant Name is required</t>
   </si>
   <si>
-    <t>Delete a company and its associated list of machines and locations</t>
-  </si>
-  <si>
     <t>the machines and locations itself are NOT deleted</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Code textbox must be empty</t>
+  </si>
+  <si>
+    <t>Delete a Plant and its associated list of machines and locations</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1328,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1411,17 +1411,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1431,17 +1431,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1451,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -1459,7 +1459,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1533,7 +1533,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1727,13 +1727,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
@@ -1747,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>6</v>
@@ -1765,7 +1765,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
@@ -1773,7 +1773,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1783,7 +1783,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
@@ -1791,7 +1791,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1801,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>9</v>
@@ -1819,7 +1819,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>6</v>
@@ -1837,7 +1837,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>6</v>
@@ -1855,7 +1855,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>6</v>
@@ -1873,7 +1873,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>9</v>
@@ -1881,7 +1881,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1891,7 +1891,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>9</v>
@@ -1899,7 +1899,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1909,7 +1909,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>6</v>
@@ -1927,7 +1927,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>6</v>
